--- a/test/functional/xlsx_files/chart_bar51.xlsx
+++ b/test/functional/xlsx_files/chart_bar51.xlsx
@@ -125,6 +125,16 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="50010001"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
